--- a/docs/Stories.xlsx
+++ b/docs/Stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koob8\Documents\ScreenManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28111236-0621-4B86-8AD9-14666887CDEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0426419-E01D-564A-992D-378617A8F8FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{23E1906B-1CE6-414F-8235-72A9FA54ED2A}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="12220" xr2:uid="{23E1906B-1CE6-414F-8235-72A9FA54ED2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Week 1 Stories Table</t>
   </si>
@@ -44,9 +39,6 @@
     <t>% Complete</t>
   </si>
   <si>
-    <t>The customer can use an internet browser in a limited capacity to increase security</t>
-  </si>
-  <si>
     <t>The customer can view the available products in the vending machine</t>
   </si>
   <si>
@@ -56,9 +48,6 @@
     <t>The customer can transfer electronic money via credit / debit card</t>
   </si>
   <si>
-    <t>Advertisers can publish ads that are displayed on the screen</t>
-  </si>
-  <si>
     <t>When no customer is using the machine, products automatically scroll to display</t>
   </si>
   <si>
@@ -75,6 +64,72 @@
   </si>
   <si>
     <t>Matt Peter, Michael Riess, Jonah Kubath</t>
+  </si>
+  <si>
+    <t>Work flow</t>
+  </si>
+  <si>
+    <t>Release 2-----------------------------------</t>
+  </si>
+  <si>
+    <t>Abstract - introduction</t>
+  </si>
+  <si>
+    <t>Large touchscreen broken into 3 sections and what the sections are used for</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>vending machine</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>modify the vending machine</t>
+  </si>
+  <si>
+    <t>Advertisers</t>
+  </si>
+  <si>
+    <t>IT?</t>
+  </si>
+  <si>
+    <t>Quantitiy falls below a cutoff - notify someone</t>
+  </si>
+  <si>
+    <t>The customer can use  internet browser, in a limited capacity to increase security</t>
+  </si>
+  <si>
+    <t>Add popup for purchase confirmation</t>
+  </si>
+  <si>
+    <t>Name for e-currency</t>
+  </si>
+  <si>
+    <t>Ads that are displayed on the screen on the Ad Window</t>
+  </si>
+  <si>
+    <t>Touchscreen Kiosk Interface</t>
+  </si>
+  <si>
+    <t>Security - interface works properly, someone hacks in, dispenses free items</t>
+  </si>
+  <si>
+    <t>Configure computer to only allow ssh</t>
+  </si>
+  <si>
+    <t>Let's encrypt to run</t>
+  </si>
+  <si>
+    <t>Ubuntu secure / disable services</t>
+  </si>
+  <si>
+    <t>Ansible to configure the computer</t>
   </si>
 </sst>
 </file>
@@ -427,125 +482,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18C7E13-27B9-4F26-BFB6-6B0C8DF0D2D8}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="75.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
         <v>20</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>20</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>10</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -554,55 +597,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
         <v>15</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
         <v>40</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>20</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Stories.xlsx
+++ b/docs/Stories.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0426419-E01D-564A-992D-378617A8F8FE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623551AC-13C4-4E42-B7A7-111D75973678}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="12220" xr2:uid="{23E1906B-1CE6-414F-8235-72A9FA54ED2A}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" xr2:uid="{23E1906B-1CE6-414F-8235-72A9FA54ED2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
-    <t>Week 1 Stories Table</t>
-  </si>
-  <si>
     <t>Story</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Ansible to configure the computer</t>
+  </si>
+  <si>
+    <t>09/29/2018 Stories Table</t>
   </si>
 </sst>
 </file>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18C7E13-27B9-4F26-BFB6-6B0C8DF0D2D8}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -499,39 +499,39 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>50</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>15</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>40</v>
@@ -667,93 +667,93 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
         <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Stories.xlsx
+++ b/docs/Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jonah/Documents/TouchscreenInterface/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623551AC-13C4-4E42-B7A7-111D75973678}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DA1A87-0FE1-6D49-8721-35777DBE46AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="24680" windowHeight="15540" xr2:uid="{23E1906B-1CE6-414F-8235-72A9FA54ED2A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Story</t>
   </si>
@@ -63,27 +63,9 @@
     <t>Matt Peter, Michael Riess, Jonah Kubath</t>
   </si>
   <si>
-    <t>Work flow</t>
-  </si>
-  <si>
     <t>Release 2-----------------------------------</t>
   </si>
   <si>
-    <t>Abstract - introduction</t>
-  </si>
-  <si>
-    <t>Large touchscreen broken into 3 sections and what the sections are used for</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>vending machine</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -130,6 +112,114 @@
   </si>
   <si>
     <t>09/29/2018 Stories Table</t>
+  </si>
+  <si>
+    <t>10/08/2018 Stories Table</t>
+  </si>
+  <si>
+    <t>Project: Touchscreen Kiosk Interface</t>
+  </si>
+  <si>
+    <t>Description: A large touchscreen has been purchased to be used as an interface for customers.  The screen will</t>
+  </si>
+  <si>
+    <t>be divided into 3 sections for the customer.  The top section will be a web browser.  This browser</t>
+  </si>
+  <si>
+    <t>will have features disabled to limit what resources on the computer the customer can access.  These limitations</t>
+  </si>
+  <si>
+    <t>include: limited open tables, cannot close the window, cannot fullscreen videos, cannot save documents.</t>
+  </si>
+  <si>
+    <t>Web Browser</t>
+  </si>
+  <si>
+    <t>Vending App</t>
+  </si>
+  <si>
+    <t>Advertisements</t>
+  </si>
+  <si>
+    <t>The second and third portion will both be controlled by the same application, but will have different</t>
+  </si>
+  <si>
+    <t>functionality.  The second portion will be the interface to the vending machine.  Customers will be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">able to view and purchase items sold in the vending machine.  The vending app is very minimalistic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">as to not require technology knowledge to operate / use it. </t>
+  </si>
+  <si>
+    <t>The third and final section is dedicated to advertisements.  This section will scroll through pictures</t>
+  </si>
+  <si>
+    <t>that are located in the src directory of the project.  In the first version of the application, only pictures</t>
+  </si>
+  <si>
+    <t>are supported for the advertisements, but the sponsor would like to see video capabilities as well.</t>
+  </si>
+  <si>
+    <t>Version 1 - The thought behind version one of the Touchscreen Kiosk Interace is to get a basic working</t>
+  </si>
+  <si>
+    <t>design and application.  This will satisfy most of the sponsor's wishes on features.  A good amount of time</t>
+  </si>
+  <si>
+    <t>will be spent on how to work with the touchscreen hardware to limit features accessible to the user.</t>
+  </si>
+  <si>
+    <t>The other time will be used to build the application and modify the browser.</t>
+  </si>
+  <si>
+    <t>Version 2 - At this stage, the basic vending application will have been created and tested.  Version 2</t>
+  </si>
+  <si>
+    <t>will allow for nearly all the time to be spent on upgrading the vending app or changing the browser.</t>
+  </si>
+  <si>
+    <t>The work with the hardware should be essentially complete.  Version 2 would like to include a database</t>
+  </si>
+  <si>
+    <t>for managing multiple devices, web interface to adjusting advertisment images, support for videos</t>
+  </si>
+  <si>
+    <t>on advertisements, and other features.</t>
+  </si>
+  <si>
+    <t>Create database to use for updating advertisements</t>
+  </si>
+  <si>
+    <t>Create database / web interface to hold and manage kiosk information</t>
+  </si>
+  <si>
+    <t>Create allerting feature to send a message when quantities become low</t>
+  </si>
+  <si>
+    <t>Create a popup / confirmation page for purchases</t>
+  </si>
+  <si>
+    <t>Create installation documentation</t>
+  </si>
+  <si>
+    <t>Create app documentation for devs to make changes</t>
+  </si>
+  <si>
+    <t>Implement Let's encrypt for security</t>
+  </si>
+  <si>
+    <t>Create script to turn off processes that are not necessary to the project</t>
+  </si>
+  <si>
+    <t>Only enable ssh connections into the computer</t>
+  </si>
+  <si>
+    <t>Add support for e-currency (add money to a card or transfer money)</t>
+  </si>
+  <si>
+    <t>.-----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------</t>
   </si>
 </sst>
 </file>
@@ -153,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -161,13 +251,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top style="slantDashDot">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color auto="1"/>
+      </left>
+      <right style="slantDashDot">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18C7E13-27B9-4F26-BFB6-6B0C8DF0D2D8}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -497,266 +636,649 @@
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>30</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E49" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>30</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>40</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>20</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67">
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>24</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>20</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="A28:E28"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>